--- a/templates/PM-J-Lamp_3.xlsx
+++ b/templates/PM-J-Lamp_3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985"/>
@@ -121,19 +121,19 @@
     <t>PEMBULATAN</t>
   </si>
   <si>
-    <t>Tanggal : ......…............................</t>
-  </si>
-  <si>
-    <t>Nomor   : ....................................</t>
-  </si>
-  <si>
-    <t>.............................</t>
-  </si>
-  <si>
-    <t>PT PLN (Persero),,,,,,,,,,,,,,,,,</t>
-  </si>
-  <si>
     <t>RENCANA KERJA DAN SYARAT-SYARAT PEMILIHAN LANGSUNG</t>
+  </si>
+  <si>
+    <t>#namapengadaan#</t>
+  </si>
+  <si>
+    <t>PT PLN (Persero) KANTOR PUSAT</t>
+  </si>
+  <si>
+    <t>Nomor   : #nomor#</t>
+  </si>
+  <si>
+    <t>Tanggal : #tanggal#</t>
   </si>
 </sst>
 </file>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -886,7 +886,7 @@
     </row>
     <row r="4" spans="3:9" ht="15.75">
       <c r="C4" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="5" spans="3:9" ht="15.75">
       <c r="C5" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -908,7 +908,7 @@
     </row>
     <row r="6" spans="3:9" ht="14.25">
       <c r="C6" s="36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
@@ -919,7 +919,7 @@
     </row>
     <row r="7" spans="3:9" ht="14.25">
       <c r="C7" s="36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -930,7 +930,7 @@
     </row>
     <row r="8" spans="3:9" ht="14.25">
       <c r="C8" s="36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
